--- a/ocms/target/test-classes/TestData/AuditTrailReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AuditTrailReportData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FBB561-1B3C-44E8-8590-1FD452BC6EE9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,8 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -191,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -368,18 +368,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A1EAB-F881-4B86-A3E3-081C46011C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -526,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BEED6-9E0D-4C15-B8C6-0F6124EFA13A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -581,7 +581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -630,11 +630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DA6B1-CCD8-43EF-9A87-EEA417F7CC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/AuditTrailReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AuditTrailReportData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I20"/>
+  <oleSize ref="A1:J18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -368,7 +368,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/ocms/target/test-classes/TestData/AuditTrailReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AuditTrailReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J18"/>
+  <oleSize ref="A1:M24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
